--- a/DragPrediction/NL2VP DragX/0.75T/n/7/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75T/n/7/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.55555556E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.52126305637470249</v>
+        <v>0.99276865616981513</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>6.3881683404683187</v>
+        <v>12.166550499206011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.50662582021978508</v>
+        <v>0.96489138942349917</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.50086554739424383</v>
+        <v>0.95392069383659883</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.29676849899879754</v>
+        <v>0.56520879494821563</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.50780688773067773</v>
+        <v>0.96714078498548162</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.27171839882511573</v>
+        <v>0.51749976592301516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.21153434985649588</v>
+        <v>0.4028765700399648</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.40376290470846699</v>
+        <v>0.76898439553043163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.21783957306649587</v>
+        <v>0.41488514785205283</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-3.1325103266739672E-2</v>
+        <v>-5.9660051281568399E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.21263796402442561</v>
+        <v>0.4049784522681924</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-4.0822452926541318E-2</v>
+        <v>-7.774817577769319E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.21041333870232645</v>
+        <v>0.40074155447830917</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-2.2313341880603306E-2</v>
+        <v>-4.2496751232530397E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.1653104430713058</v>
+        <v>0.31484108534399041</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-2.4836492952495869E-2</v>
+        <v>-4.7302204579593596E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.12702337628021901</v>
+        <v>0.24192166513564919</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-4.3894286975714875E-2</v>
+        <v>-8.35986202388532E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-2.8702266646933882E-2</v>
+        <v>-5.4664742378407197E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-3.2855253966309915E-2</v>
+        <v>-6.2574291289894793E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-3.0710262736152894E-2</v>
+        <v>-5.8489060167111598E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-2.0663666534727274E-2</v>
+        <v>-3.9354871223553599E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-1.3777547336305786E-2</v>
+        <v>-2.62399511860824E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-2.0506905803789256E-2</v>
+        <v>-3.9056313444922795E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5.1218891903367765E-2</v>
+        <v>9.7548655834265988E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4.9426724622309924E-2</v>
+        <v>9.4135393602291603E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5.0706130027252071E-2</v>
+        <v>9.657207805369801E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5.2384939199380171E-2</v>
+        <v>9.9769444729500001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-6.7403675744095046E-2</v>
+        <v>-0.1283732959223364</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>3.1026806209723139E-2</v>
+        <v>5.9091931279945192E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-4.0847355936421491E-2</v>
+        <v>-7.7795604666717602E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-4.560450056666529E-2</v>
+        <v>-8.6855798025937195E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-5.2188026550904959E-2</v>
+        <v>-9.9394415839539604E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-5.5160575264524794E-2</v>
+        <v>-0.105055766966826</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-6.9821570965438007E-2</v>
+        <v>-0.1329782848243824</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-0.13503069448759092</v>
+        <v>-0.25717195851255481</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-0.11819321329410744</v>
+        <v>-0.2251042273098216</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-0.10909460582595869</v>
+        <v>-0.2077755250380888</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-9.6921469000909102E-2</v>
+        <v>-0.18459124497184801</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-0.10475262026170661</v>
+        <v>-0.19950602057001718</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.9216555815954547E-2</v>
+        <v>3.65987845490124E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>2.7718144454913222E-2</v>
+        <v>5.2790437928607596E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>2.2502536147859502E-2</v>
+        <v>4.28570801224488E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>7.2847829811223147E-2</v>
+        <v>0.13874192928529439</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>2.8860979434074379E-2</v>
+        <v>5.4967017934826397E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>3.4295454896181819E-2</v>
+        <v>6.5317217964398405E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>3.883157612519008E-2</v>
+        <v>7.3956462433526396E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>7.0505019329082652E-2</v>
+        <v>0.13427994260587919</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>7.3991702075479351E-2</v>
+        <v>0.1409204848470744</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>7.2258529363252069E-2</v>
+        <v>0.1376195803931988</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>7.5052665040524796E-2</v>
+        <v>0.1429411359639588</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>7.6078147954760339E-2</v>
+        <v>0.14489421374731681</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>7.7237171115483477E-2</v>
+        <v>0.1471016248647348</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>8.1510083293524799E-2</v>
+        <v>0.15523957599909721</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>4.318978254140083E-2</v>
+        <v>8.2256860235019602E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>8.3612357980004132E-2</v>
+        <v>0.1592434515660924</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>8.3732821900214874E-2</v>
+        <v>0.15947288045563679</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>6.8552334221466948E-2</v>
+        <v>0.13056096703969799</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>7.5201544038260335E-2</v>
+        <v>0.14322468263143559</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>7.8417054324495875E-2</v>
+        <v>0.1493487648711552</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>7.820664063458678E-2</v>
+        <v>0.148948022647788</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>0.12793442296243387</v>
+        <v>0.24365679402949558</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>7.7309985262115702E-2</v>
+        <v>0.1472403026429088</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>9.3765598523838839E-2</v>
+        <v>0.17858074939911958</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>0.10912559369722315</v>
+        <v>0.20783454281603519</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E81" si="1">A67*$E$1</f>
-        <v>0.12098021865730166</v>
+        <v>0.23041220288054279</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>0.11623491704585952</v>
+        <v>0.2213745650769432</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>9.0342680224190092E-2</v>
+        <v>0.17206164938049359</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>0.10038073311688017</v>
+        <v>0.191179567212894</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>8.1946861994528927E-2</v>
+        <v>0.15607144044591839</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>7.933582755552894E-2</v>
+        <v>0.15109860932059921</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>9.7828636073516523E-2</v>
+        <v>0.1863189849767844</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>9.5856691767049598E-2</v>
+        <v>0.18256332941049841</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>0.11320765358537603</v>
+        <v>0.21560900728269239</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>0.11688527846525207</v>
+        <v>0.2226132073027044</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>0.1187855765917686</v>
+        <v>0.22623240953526719</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>0.11214240263076447</v>
+        <v>0.213580189499118</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>0.11051990088733885</v>
+        <v>0.2104900628236224</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>0.11691221520732645</v>
+        <v>0.22266450952507319</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>4.3946453431636362E-2</v>
+        <v>8.3697973572470399E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1822,5 +1822,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>